--- a/機械設計/_BOM/CU-AAS003R.xlsx
+++ b/機械設計/_BOM/CU-AAS003R.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E598897-7E37-4DBC-9B69-06DF6DB3702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED5F33B-D386-4717-8796-010590203689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{CF771283-8FED-4461-A295-7DCC0C91836F}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{04A2410E-AE08-4C03-A41D-C7247D173621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{09488BEC-27AC-42BD-910D-88F09A64F8AC}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{02C6ED90-1CD4-40B3-98F8-F66A4042979E}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -236,8 +236,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D4433832-F14E-49BF-9745-CD0D0B0B9C88}">
-  <header guid="{D4433832-F14E-49BF-9745-CD0D0B0B9C88}" dateTime="2023-07-13T18:36:06" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CEA2A828-114F-4A7E-9DBF-7A5F6672D238}">
+  <header guid="{CEA2A828-114F-4A7E-9DBF-7A5F6672D238}" dateTime="2023-07-16T16:40:42" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EA9937-1DD9-400E-8D68-82339D470C34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6332A-5EDD-4EE1-8CBC-D0AFD70E2D2F}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -818,7 +818,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{09488BEC-27AC-42BD-910D-88F09A64F8AC}">
+    <customSheetView guid="{02C6ED90-1CD4-40B3-98F8-F66A4042979E}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
